--- a/data/Río Hurtado.xlsx
+++ b/data/Río Hurtado.xlsx
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/data/Río Hurtado.xlsx
+++ b/data/Río Hurtado.xlsx
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/data/Río Hurtado.xlsx
+++ b/data/Río Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA MINERA PILAR</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL Y MINERA EL RELOJ LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5271</v>
+        <v>2050</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7956198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>AMPLIACION PLANTA MINERA PILAR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD COMERCIAL Y MINERA EL RELOJ LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>5271</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7956198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal de Río Hurtado</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Río Hurtado</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>517</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/05/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5570162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Plan de Cierre Vertedero Municipal de Río Hurtado</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Ilustre Municipalidad de Río Hurtado</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>517</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>05/05/2011</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5570162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación del servicio de agua potable de la localidad de Quilimarí, Comuna de Los Vilos</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Los Vilos</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2212</v>
+        <v>12000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5443005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Mejoramiento y Ampliación del servicio de agua potable de la localidad de Quilimarí, Comuna de Los Vilos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Los Vilos</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1750</v>
+        <v>2212</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5443005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Comuna de Río Hurtado</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gary Valenzuela Rojas</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>120</v>
+        <v>4050</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4484819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Plan de Cierre Vertedero Comuna de Río Hurtado</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Gary Valenzuela Rojas</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>08/04/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4484819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SISTEMA ALTERNATIVO DE TRATAMIENTO Y DISPOSICIÓN DE AGUA DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL RÍO HURTADO, CAPEL LTDA. (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/02/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3547225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>SISTEMA ALTERNATIVO DE TRATAMIENTO Y DISPOSICIÓN DE AGUA DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL RÍO HURTADO, CAPEL LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>06/02/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3547225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICIÓN DE AGUAS DE LAVADO DE PLANTA RÍO HURTADO, CAPEL LTDA. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2726982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/02/2008</t>
+          <t>20/02/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2691201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2726982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICIÓN DE AGUAS DE LAVADO DE PLANTA RÍO HURTADO, CAPEL LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>05/02/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2691201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Río Hurtado (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rio Hurtado</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>25/11/2005</t>
+          <t>13/12/2005</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1135090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Plan Regulador Comunal de Río Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Ilustre Municipalidad de Rio Hurtado</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>25/11/2005</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1135090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Proyecto Turístico Hacienda Los Andes</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Clark Stede Dorfler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Fundina Sur</t>
+          <t>Proyecto Turístico Hacienda Los Andes</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rio Hurtado</t>
+          <t>Clark Stede Dorfler</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03/01/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Fundina Sur</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Rio Hurtado</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/01/2002</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Fundina Sur</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Río Hurtado</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Serón</t>
+          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Fundina Sur</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/06/1997</t>
+          <t>16/11/2000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Las Breas</t>
+          <t>Reposición Escuela Básica Serón</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>730</v>
+        <v>240</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Tabaqueros</t>
+          <t>Reposición Escuela Básica Las Breas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>140</v>
+        <v>730</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Hijos del Chañar</t>
+          <t>Reposición Escuela Básica Tabaqueros</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,43 +3544,91 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>Reposición Escuela Básica Hijos del Chañar</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Río Hurtado</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>660</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>16/06/1997</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1130&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Río Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Reposición y Equipamiento de Escuelas de Río Hurtado</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Cuarta</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>I. Municipalidad de Río Hurtado</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="F68" t="n">
         <v>550</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>16/06/1997</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2701&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Río Hurtado</t>
         </is>

--- a/data/Río Hurtado.xlsx
+++ b/data/Río Hurtado.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">

--- a/data/Río Hurtado.xlsx
+++ b/data/Río Hurtado.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">

--- a/data/Río Hurtado.xlsx
+++ b/data/Río Hurtado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
